--- a/Flight GUI Test Original/Default.xlsx
+++ b/Flight GUI Test Original/Default.xlsx
@@ -215,10 +215,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -528,9 +528,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.55859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.55859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -545,10 +545,10 @@
       </c>
     </row>
     <row>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>5</v>
       </c>
       <c s="3" t="s">
@@ -570,7 +570,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
